--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\RootstockFinancials\PurchaseOrder\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F8172A-74D0-44DC-8122-4F45C0C544F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE05260-664D-4140-8303-6EF0B7CC4C2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
@@ -22,9 +22,10 @@
     <sheet name="POIssue" sheetId="6" r:id="rId7"/>
     <sheet name="CostTransaction" sheetId="8" r:id="rId8"/>
     <sheet name="POAuthorization" sheetId="7" r:id="rId9"/>
-    <sheet name="PurchaseRequisition" sheetId="9" r:id="rId10"/>
-    <sheet name="InventoryRequisition" sheetId="10" r:id="rId11"/>
-    <sheet name="IndirectRequisition" sheetId="11" r:id="rId12"/>
+    <sheet name="POAuthorizationPartial" sheetId="14" r:id="rId10"/>
+    <sheet name="PurchaseRequisition" sheetId="9" r:id="rId11"/>
+    <sheet name="InventoryRequisition" sheetId="10" r:id="rId12"/>
+    <sheet name="IndirectRequisition" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
   <si>
     <t>Vendor</t>
   </si>
@@ -179,7 +180,10 @@
     <t>NPAuto_Purchased_LOT (Lot Track item)</t>
   </si>
   <si>
-    <t>NPAuto_Purchased_SRLLOT (Serial Lot Tracking)</t>
+    <t>ReversalQuantity</t>
+  </si>
+  <si>
+    <t>NPAuto_Purchased_SRL (Purchased serial for automation)</t>
   </si>
 </sst>
 </file>
@@ -647,6 +651,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>111.8532</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>150.14230000000001</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -686,7 +756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -737,7 +807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -794,7 +864,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1077,7 @@
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,49 +1090,67 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>111.85299999999999</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>111.8532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>150.14230000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>44</v>
+        <v>150.142</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>45.369300000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45.362000000000002</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>50.789299999999997</v>
+        <v>36.21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>111.8532</v>
+        <v>170.22</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1128,11 +1216,14 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>150.14230000000001</v>
+        <v>55.51</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,7 +1465,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I17" activeCellId="1" sqref="I16 I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1504,7 @@
         <v>15.897</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,7 +1519,7 @@
         <v>46.432000000000002</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE05260-664D-4140-8303-6EF0B7CC4C2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3ABC23-45E7-4228-B788-277DA0EB2A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <sheet name="POAuthorizationPartial" sheetId="14" r:id="rId10"/>
     <sheet name="PurchaseRequisition" sheetId="9" r:id="rId11"/>
     <sheet name="InventoryRequisition" sheetId="10" r:id="rId12"/>
-    <sheet name="IndirectRequisition" sheetId="11" r:id="rId13"/>
+    <sheet name="VendorClass" sheetId="15" r:id="rId13"/>
+    <sheet name="NONINVPOITEM" sheetId="16" r:id="rId14"/>
+    <sheet name="IndirectRequisition" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t>Vendor</t>
   </si>
@@ -184,13 +186,121 @@
   </si>
   <si>
     <t>NPAuto_Purchased_SRL (Purchased serial for automation)</t>
+  </si>
+  <si>
+    <t>il…</t>
+  </si>
+  <si>
+    <t>PO Price Override</t>
+  </si>
+  <si>
+    <t>Namrata Patil</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Create_Buyer</t>
+  </si>
+  <si>
+    <t>Create_Payterms</t>
+  </si>
+  <si>
+    <t>Create_APUser</t>
+  </si>
+  <si>
+    <t>Create_glacct</t>
+  </si>
+  <si>
+    <t>Create_BankName</t>
+  </si>
+  <si>
+    <t>Create_paytype</t>
+  </si>
+  <si>
+    <t>Edit_paytype</t>
+  </si>
+  <si>
+    <t>Edit_glacct</t>
+  </si>
+  <si>
+    <t>Edit_BankName</t>
+  </si>
+  <si>
+    <t>210-N30 (2%-10, Net 30)</t>
+  </si>
+  <si>
+    <t>1094 (Interest Expense)</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>4588 (COS - Standards Variance)</t>
+  </si>
+  <si>
+    <t>Central Bank Of India</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>BC-Bank</t>
+  </si>
+  <si>
+    <t>Edit_Freightterms</t>
+  </si>
+  <si>
+    <t>TEST1234</t>
+  </si>
+  <si>
+    <t>Edit_FOB</t>
+  </si>
+  <si>
+    <t>ORIGIN (Origin)</t>
+  </si>
+  <si>
+    <t>Edit_Carrier</t>
+  </si>
+  <si>
+    <t>UPS (UPS)</t>
+  </si>
+  <si>
+    <t>Edit_shippingmethod</t>
+  </si>
+  <si>
+    <t>Ground (Ground)</t>
+  </si>
+  <si>
+    <t>Create_ItemType</t>
+  </si>
+  <si>
+    <t>Create_POCommcod</t>
+  </si>
+  <si>
+    <t>Create_odc</t>
+  </si>
+  <si>
+    <t>Edit_ExpenseAcct</t>
+  </si>
+  <si>
+    <t>Indirect Material</t>
+  </si>
+  <si>
+    <t>PK_Buy_Indirect</t>
+  </si>
+  <si>
+    <t>raul-indirect MT</t>
+  </si>
+  <si>
+    <t>21.18 (Test Sub 21.18)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +319,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -243,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +371,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,18 +875,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -779,8 +897,17 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -790,8 +917,14 @@
       <c r="C2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -800,6 +933,12 @@
       </c>
       <c r="C3">
         <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +947,156 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1065,9 +1354,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1077,7 +1366,7 @@
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1125,7 +1414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,6 +1440,11 @@
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3ABC23-45E7-4228-B788-277DA0EB2A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E462F9-C9B8-4066-A743-61C587639A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="InventoryRequisition" sheetId="10" r:id="rId12"/>
     <sheet name="VendorClass" sheetId="15" r:id="rId13"/>
     <sheet name="NONINVPOITEM" sheetId="16" r:id="rId14"/>
-    <sheet name="IndirectRequisition" sheetId="11" r:id="rId15"/>
+    <sheet name="VendorMaster" sheetId="17" r:id="rId15"/>
+    <sheet name="IndirectRequisition" sheetId="11" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
   <si>
     <t>Vendor</t>
   </si>
@@ -188,9 +189,6 @@
     <t>NPAuto_Purchased_SRL (Purchased serial for automation)</t>
   </si>
   <si>
-    <t>il…</t>
-  </si>
-  <si>
     <t>PO Price Override</t>
   </si>
   <si>
@@ -294,6 +292,36 @@
   </si>
   <si>
     <t>21.18 (Test Sub 21.18)</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Avenue Villa</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Buyer</t>
   </si>
 </sst>
 </file>
@@ -901,10 +929,10 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,7 +949,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,7 +966,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -962,84 +990,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1064,30 +1092,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1097,6 +1125,64 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2">
+        <v>2101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1354,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1452,7 @@
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1400,7 +1486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1414,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1440,11 +1526,6 @@
       </c>
       <c r="E5">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E462F9-C9B8-4066-A743-61C587639A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57AFF71-C803-49BE-A941-AD7804A985B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
     <sheet name="MultiplePOLine" sheetId="4" r:id="rId2"/>
-    <sheet name="PODIMVAL" sheetId="13" r:id="rId3"/>
-    <sheet name="POHDRRev" sheetId="1" r:id="rId4"/>
-    <sheet name="POReceipt" sheetId="2" r:id="rId5"/>
-    <sheet name="POReceiptPartial" sheetId="12" r:id="rId6"/>
-    <sheet name="POIssue" sheetId="6" r:id="rId7"/>
-    <sheet name="CostTransaction" sheetId="8" r:id="rId8"/>
-    <sheet name="POAuthorization" sheetId="7" r:id="rId9"/>
-    <sheet name="POAuthorizationPartial" sheetId="14" r:id="rId10"/>
-    <sheet name="PurchaseRequisition" sheetId="9" r:id="rId11"/>
-    <sheet name="InventoryRequisition" sheetId="10" r:id="rId12"/>
-    <sheet name="VendorClass" sheetId="15" r:id="rId13"/>
-    <sheet name="NONINVPOITEM" sheetId="16" r:id="rId14"/>
-    <sheet name="VendorMaster" sheetId="17" r:id="rId15"/>
-    <sheet name="IndirectRequisition" sheetId="11" r:id="rId16"/>
+    <sheet name="UpdatePOLineDetail" sheetId="19" r:id="rId3"/>
+    <sheet name="PODIMVAL" sheetId="13" r:id="rId4"/>
+    <sheet name="POHDRRev" sheetId="1" r:id="rId5"/>
+    <sheet name="POReceipt" sheetId="2" r:id="rId6"/>
+    <sheet name="AddItem" sheetId="18" r:id="rId7"/>
+    <sheet name="POReceiptPartial" sheetId="12" r:id="rId8"/>
+    <sheet name="POIssue" sheetId="6" r:id="rId9"/>
+    <sheet name="CostTransaction" sheetId="8" r:id="rId10"/>
+    <sheet name="POAuthorization" sheetId="7" r:id="rId11"/>
+    <sheet name="POAuthorizationPartial" sheetId="14" r:id="rId12"/>
+    <sheet name="PurchaseRequisition" sheetId="9" r:id="rId13"/>
+    <sheet name="InventoryRequisition" sheetId="10" r:id="rId14"/>
+    <sheet name="VendorClass" sheetId="15" r:id="rId15"/>
+    <sheet name="NONINVPOITEM" sheetId="16" r:id="rId16"/>
+    <sheet name="VendorMaster" sheetId="17" r:id="rId17"/>
+    <sheet name="IndirectRequisition" sheetId="11" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
   <si>
     <t>Vendor</t>
   </si>
@@ -322,13 +324,73 @@
   </si>
   <si>
     <t>Buyer</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>PO Commodity Code</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Purch UOM</t>
+  </si>
+  <si>
+    <t>ODC ID</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Adding New Item</t>
+  </si>
+  <si>
+    <t>raul-SERVICE</t>
+  </si>
+  <si>
+    <t>EA (Each)</t>
+  </si>
+  <si>
+    <t>EACH (EAch)</t>
+  </si>
+  <si>
+    <t>NPAuto_Service</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>a351K000000eQyD</t>
+  </si>
+  <si>
+    <t>ReceiptSite</t>
+  </si>
+  <si>
+    <t>20 (Colo Springs)</t>
+  </si>
+  <si>
+    <t>ReceiptLoc</t>
+  </si>
+  <si>
+    <t>Main (Main Warehouse)</t>
+  </si>
+  <si>
+    <t>ReceiptLocNum</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>OrgDept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +413,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -387,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,6 +468,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +796,7 @@
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -740,8 +809,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -752,41 +824,10 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>55.468899999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>23.4236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>30.963000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>33.999000000000002</v>
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +837,235 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" activeCellId="1" sqref="I16 I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>15.897</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>46.432000000000002</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -861,7 +1131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -901,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -974,7 +1244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1076,7 +1346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1124,7 +1394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1182,7 +1452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1239,7 +1509,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,6 +1602,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1382,7 +1695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1438,11 +1751,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1534,7 +1847,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1605,7 +2013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1672,233 +2080,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" activeCellId="1" sqref="I16 I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>15.897</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>46.432000000000002</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57AFF71-C803-49BE-A941-AD7804A985B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF39BE3-4285-44CC-97F1-51A0C699B2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" firstSheet="5" activeTab="5" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
@@ -182,15 +182,9 @@
     <t>ReceiptQuantity</t>
   </si>
   <si>
-    <t>NPAuto_Purchased_LOT (Lot Track item)</t>
-  </si>
-  <si>
     <t>ReversalQuantity</t>
   </si>
   <si>
-    <t>NPAuto_Purchased_SRL (Purchased serial for automation)</t>
-  </si>
-  <si>
     <t>PO Price Override</t>
   </si>
   <si>
@@ -384,6 +378,12 @@
   </si>
   <si>
     <t>OrgDept</t>
+  </si>
+  <si>
+    <t>NPAuto_Purchased_SRLLOT (Serial Lot Tracking)</t>
+  </si>
+  <si>
+    <t>RTVQty</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" activeCellId="1" sqref="I16 I17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>15.897</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>46.432000000000002</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1199,10 +1199,10 @@
         <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1260,84 +1260,84 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1362,30 +1362,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1409,42 +1409,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
       </c>
       <c r="E2">
         <v>2101</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1613,27 +1613,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>
@@ -1753,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1765,7 @@
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1779,66 +1779,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>111.85299999999999</v>
+        <v>200</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3">
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D3">
-        <v>150.142</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>45.362000000000002</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>36.21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1866,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>93</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1892,19 +1890,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1915,19 +1913,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2018,7 +2016,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF39BE3-4285-44CC-97F1-51A0C699B2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0EE8C-DE0D-47BE-912E-F6E268A75389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" firstSheet="5" activeTab="5" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
   <si>
     <t>Vendor</t>
   </si>
@@ -384,13 +384,22 @@
   </si>
   <si>
     <t>RTVQty</t>
+  </si>
+  <si>
+    <t>SB Vend CAD (1128)</t>
+  </si>
+  <si>
+    <t>CO|||Green Widgets||||</t>
+  </si>
+  <si>
+    <t>|||Green Widgets||||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +430,12 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -455,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,6 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,7 +802,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +831,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1070,7 +1086,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,14 +1149,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1166,8 +1183,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1509,7 +1538,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,10 +1577,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -1566,10 +1595,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -1583,10 +1612,10 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>13.56</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -1648,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,27 +1696,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+      <c r="A2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
+      <c r="A3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
+      <c r="A4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0EE8C-DE0D-47BE-912E-F6E268A75389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8E026A40-5C21-4372-B85C-33496717EAE8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView activeTab="13" firstSheet="13" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
-    <sheet name="MultiplePOLine" sheetId="4" r:id="rId2"/>
-    <sheet name="UpdatePOLineDetail" sheetId="19" r:id="rId3"/>
-    <sheet name="PODIMVAL" sheetId="13" r:id="rId4"/>
-    <sheet name="POHDRRev" sheetId="1" r:id="rId5"/>
-    <sheet name="POReceipt" sheetId="2" r:id="rId6"/>
-    <sheet name="AddItem" sheetId="18" r:id="rId7"/>
-    <sheet name="POReceiptPartial" sheetId="12" r:id="rId8"/>
-    <sheet name="POIssue" sheetId="6" r:id="rId9"/>
-    <sheet name="CostTransaction" sheetId="8" r:id="rId10"/>
-    <sheet name="POAuthorization" sheetId="7" r:id="rId11"/>
-    <sheet name="POAuthorizationPartial" sheetId="14" r:id="rId12"/>
-    <sheet name="PurchaseRequisition" sheetId="9" r:id="rId13"/>
-    <sheet name="InventoryRequisition" sheetId="10" r:id="rId14"/>
-    <sheet name="VendorClass" sheetId="15" r:id="rId15"/>
-    <sheet name="NONINVPOITEM" sheetId="16" r:id="rId16"/>
-    <sheet name="VendorMaster" sheetId="17" r:id="rId17"/>
-    <sheet name="IndirectRequisition" sheetId="11" r:id="rId18"/>
+    <sheet name="PurchaseOrder" r:id="rId1" sheetId="3"/>
+    <sheet name="MultiplePOLine" r:id="rId2" sheetId="4"/>
+    <sheet name="UpdatePOLineDetail" r:id="rId3" sheetId="19"/>
+    <sheet name="PODIMVAL" r:id="rId4" sheetId="13"/>
+    <sheet name="POHDRRev" r:id="rId5" sheetId="1"/>
+    <sheet name="POReceipt" r:id="rId6" sheetId="2"/>
+    <sheet name="AddItem" r:id="rId7" sheetId="18"/>
+    <sheet name="POReceiptPartial" r:id="rId8" sheetId="12"/>
+    <sheet name="POIssue" r:id="rId9" sheetId="6"/>
+    <sheet name="CostTransaction" r:id="rId10" sheetId="8"/>
+    <sheet name="POAuthorization" r:id="rId11" sheetId="7"/>
+    <sheet name="POAuthorizationPartial" r:id="rId12" sheetId="14"/>
+    <sheet name="PurchaseRequisition" r:id="rId13" sheetId="9"/>
+    <sheet name="InventoryRequisition" r:id="rId14" sheetId="10"/>
+    <sheet name="VendorClass" r:id="rId15" sheetId="15"/>
+    <sheet name="NONINVPOITEM" r:id="rId16" sheetId="16"/>
+    <sheet name="VendorMaster" r:id="rId17" sheetId="17"/>
+    <sheet name="IndirectRequisition" r:id="rId18" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
   <si>
     <t>Vendor</t>
   </si>
@@ -393,13 +393,55 @@
   </si>
   <si>
     <t>|||Green Widgets||||</t>
+  </si>
+  <si>
+    <t>Icitem</t>
+  </si>
+  <si>
+    <t>QuantityBefore</t>
+  </si>
+  <si>
+    <t>QuantityAfter</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTam</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTaw</t>
+  </si>
+  <si>
+    <t>1160.0</t>
+  </si>
+  <si>
+    <t>644.0</t>
+  </si>
+  <si>
+    <t>1162.0</t>
+  </si>
+  <si>
+    <t>646.0</t>
+  </si>
+  <si>
+    <t>1164.0</t>
+  </si>
+  <si>
+    <t>648.0</t>
+  </si>
+  <si>
+    <t>1166.0</t>
+  </si>
+  <si>
+    <t>650.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +479,102 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -458,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -466,31 +604,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="26">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +685,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -545,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -597,7 +775,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -708,21 +886,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -739,7 +917,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -791,14 +969,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -807,9 +985,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,13 +1025,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -862,9 +1040,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,13 +1186,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1023,7 +1201,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,13 +1254,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1091,7 +1269,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,22 +1321,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,38 +1361,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="51.09375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.27734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.3125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.890625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1233,16 +1407,25 @@
       <c r="F1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1250,16 +1433,25 @@
       <c r="E2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -1267,14 +1459,23 @@
       <c r="E3" t="s">
         <v>45</v>
       </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1283,8 +1484,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1370,13 +1571,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1385,8 +1586,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1619,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1433,7 +1634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,21 +1678,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>13.56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,20 +1722,20 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C955E7-4781-43FD-9799-D5C0BF0CD978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C955E7-4781-43FD-9799-D5C0BF0CD978}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1543,10 +1744,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,7 +1772,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1625,13 +1826,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1669,22 +1870,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,12 +1921,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1775,13 +1976,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1790,8 +1991,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1869,13 +2070,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1884,8 +2085,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1964,13 +2165,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,9 +2180,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,12 +2237,12 @@
       <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2050,11 +2251,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,7 +2305,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -1,40 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB0EE8C-DE0D-47BE-912E-F6E268A75389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{62DBD342-D46D-46B1-BE7C-158A8800FE75}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}"/>
+    <workbookView activeTab="14" firstSheet="10" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="PurchaseOrder" sheetId="3" r:id="rId1"/>
-    <sheet name="MultiplePOLine" sheetId="4" r:id="rId2"/>
-    <sheet name="UpdatePOLineDetail" sheetId="19" r:id="rId3"/>
-    <sheet name="PODIMVAL" sheetId="13" r:id="rId4"/>
-    <sheet name="POHDRRev" sheetId="1" r:id="rId5"/>
-    <sheet name="POReceipt" sheetId="2" r:id="rId6"/>
-    <sheet name="AddItem" sheetId="18" r:id="rId7"/>
-    <sheet name="POReceiptPartial" sheetId="12" r:id="rId8"/>
-    <sheet name="POIssue" sheetId="6" r:id="rId9"/>
-    <sheet name="CostTransaction" sheetId="8" r:id="rId10"/>
-    <sheet name="POAuthorization" sheetId="7" r:id="rId11"/>
-    <sheet name="POAuthorizationPartial" sheetId="14" r:id="rId12"/>
-    <sheet name="PurchaseRequisition" sheetId="9" r:id="rId13"/>
-    <sheet name="InventoryRequisition" sheetId="10" r:id="rId14"/>
-    <sheet name="VendorClass" sheetId="15" r:id="rId15"/>
-    <sheet name="NONINVPOITEM" sheetId="16" r:id="rId16"/>
-    <sheet name="VendorMaster" sheetId="17" r:id="rId17"/>
-    <sheet name="IndirectRequisition" sheetId="11" r:id="rId18"/>
+    <sheet name="PurchaseOrder" r:id="rId1" sheetId="3"/>
+    <sheet name="MultiplePOLine" r:id="rId2" sheetId="4"/>
+    <sheet name="POVendor" r:id="rId3" sheetId="20"/>
+    <sheet name="UpdatePOLineDetail" r:id="rId4" sheetId="19"/>
+    <sheet name="PODIMVAL" r:id="rId5" sheetId="13"/>
+    <sheet name="POHDRRev" r:id="rId6" sheetId="1"/>
+    <sheet name="POReceipt" r:id="rId7" sheetId="2"/>
+    <sheet name="AddItem" r:id="rId8" sheetId="18"/>
+    <sheet name="POReceiptPartial" r:id="rId9" sheetId="12"/>
+    <sheet name="POIssue" r:id="rId10" sheetId="6"/>
+    <sheet name="CostTransaction" r:id="rId11" sheetId="8"/>
+    <sheet name="POAuthorization" r:id="rId12" sheetId="7"/>
+    <sheet name="POAuthorizationPartial" r:id="rId13" sheetId="14"/>
+    <sheet name="PurchaseRequisition" r:id="rId14" sheetId="9"/>
+    <sheet name="InventoryRequisition" r:id="rId15" sheetId="10"/>
+    <sheet name="VendorClass" r:id="rId16" sheetId="15"/>
+    <sheet name="NONINVPOITEM" r:id="rId17" sheetId="16"/>
+    <sheet name="VendorMaster" r:id="rId18" sheetId="17"/>
+    <sheet name="IndirectRequisition" r:id="rId19" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="131">
   <si>
     <t>Vendor</t>
   </si>
@@ -83,9 +84,6 @@
     <t>510-N30 (5%-10, Net 30)</t>
   </si>
   <si>
-    <t>SB Test CMPNO (1076)</t>
-  </si>
-  <si>
     <t>NPAuto_Subcontract (Subcontract item for automation)</t>
   </si>
   <si>
@@ -393,13 +391,70 @@
   </si>
   <si>
     <t>|||Green Widgets||||</t>
+  </si>
+  <si>
+    <t>Icitem</t>
+  </si>
+  <si>
+    <t>QuantityBefore</t>
+  </si>
+  <si>
+    <t>QuantityAfter</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTam</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTaw</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>1220.0</t>
+  </si>
+  <si>
+    <t>689.0</t>
+  </si>
+  <si>
+    <t>1222.0</t>
+  </si>
+  <si>
+    <t>691.0</t>
+  </si>
+  <si>
+    <t>MMDD Bank Account</t>
+  </si>
+  <si>
+    <t>Bank of Dad</t>
+  </si>
+  <si>
+    <t>1224.0</t>
+  </si>
+  <si>
+    <t>693.0</t>
+  </si>
+  <si>
+    <t>1226.0</t>
+  </si>
+  <si>
+    <t>695.0</t>
+  </si>
+  <si>
+    <t>1228.0</t>
+  </si>
+  <si>
+    <t>697.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +491,150 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="4">
@@ -458,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -466,31 +665,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="34">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +766,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -545,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -597,7 +856,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -708,21 +967,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -739,7 +998,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -791,25 +1050,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4B9882-54A1-458A-9394-E3A41E6E9252}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,17 +1102,86 @@
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E8B54E-E710-493B-ACB1-742CFB184921}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -862,227 +1190,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>33</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0CA9A3-1A45-4654-BF51-4728E3E057D2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1091,24 +1351,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
+      <c r="E1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,105 +1377,190 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>111.8532</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>150.14230000000001</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01922CF7-780E-4770-868D-4754A14FF7E5}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>111.8532</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>150.14230000000001</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
+      <c r="D3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3CC08-5902-46B1-B680-4FBFE135756B}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="51.09375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.27734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.3125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.890625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.53125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.83984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1225,56 +1571,83 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6130D2-2258-4970-AEC9-AEEFF9FC83D2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1283,100 +1656,100 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AC5DC2-E025-402D-BF69-1EF7E4D3E24B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1385,157 +1758,105 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>78</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EF229-A232-4FA4-B9BE-B547E34B6D44}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
       </c>
       <c r="E2">
         <v>2101</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>13.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C955E7-4781-43FD-9799-D5C0BF0CD978}">
-  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1543,95 +1864,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C955E7-4781-43FD-9799-D5C0BF0CD978}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" width="14.0" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
         <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>30</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
         <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FC0926-85C3-4BB9-9625-9C590ADC6DD2}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" activeCellId="1" sqref="A2 D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF96F5-6B31-480B-85BF-591CD9154932}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1642,90 +2041,90 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0A514-3BD0-4147-9BA6-B453866E7E82}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>113</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C482DA-9739-4DD4-8D25-C6A6B22625C9}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1775,23 +2174,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C9AD3-2B09-4E34-AACF-6768C297C7C0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1853,7 +2252,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -1869,23 +2268,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A938D-E131-40DB-A365-B0D5BBB31922}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1919,19 +2319,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1942,19 +2342,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1964,13 +2364,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AB9CA-14A5-4485-B737-D2BE4976679E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,9 +2379,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2020,7 +2420,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -2036,75 +2436,6 @@
       <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20C591-0002-4368-A7AE-91D992F4C90B}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/templates/RSTKF_AutomationData.xlsx
+++ b/templates/RSTKF_AutomationData.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="159">
   <si>
     <t>Vendor</t>
   </si>
@@ -445,6 +445,90 @@
   </si>
   <si>
     <t>697.0</t>
+  </si>
+  <si>
+    <t>1287.0</t>
+  </si>
+  <si>
+    <t>729.0</t>
+  </si>
+  <si>
+    <t>1289.0</t>
+  </si>
+  <si>
+    <t>731.0</t>
+  </si>
+  <si>
+    <t>733.0</t>
+  </si>
+  <si>
+    <t>1291.0</t>
+  </si>
+  <si>
+    <t>801.0</t>
+  </si>
+  <si>
+    <t>1349.0</t>
+  </si>
+  <si>
+    <t>803.0</t>
+  </si>
+  <si>
+    <t>1351.0</t>
+  </si>
+  <si>
+    <t>812.0</t>
+  </si>
+  <si>
+    <t>1361.0</t>
+  </si>
+  <si>
+    <t>814.0</t>
+  </si>
+  <si>
+    <t>1363.0</t>
+  </si>
+  <si>
+    <t>862.0</t>
+  </si>
+  <si>
+    <t>1527.0</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>1529.0</t>
+  </si>
+  <si>
+    <t>904.0</t>
+  </si>
+  <si>
+    <t>1553.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>1555.0</t>
+  </si>
+  <si>
+    <t>908.0</t>
+  </si>
+  <si>
+    <t>1557.0</t>
+  </si>
+  <si>
+    <t>910.0</t>
+  </si>
+  <si>
+    <t>1559.0</t>
+  </si>
+  <si>
+    <t>912.0</t>
+  </si>
+  <si>
+    <t>1561.0</t>
   </si>
 </sst>
 </file>
@@ -454,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="134" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +575,630 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -657,7 +1365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -701,11 +1409,167 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -742,8 +1606,112 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="56" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="60" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="61" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="62" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="68" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="69" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="70" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="71" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="72" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="73" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="74" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="75" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="76" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="77" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="78" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="79" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="80" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="81" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="82" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="83" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="84" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="85" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="86" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="87" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="88" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="89" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="90" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="91" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="92" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="93" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="94" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="95" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="96" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="97" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="98" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="99" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="100" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="101" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="102" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="103" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="104" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="105" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="106" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="107" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="108" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="109" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="110" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="111" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="112" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="113" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="114" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="115" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="116" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="117" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="118" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="119" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="120" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="121" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="122" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="123" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="124" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="125" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="126" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="127" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="128" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="129" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="130" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="131" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="133" fillId="0" borderId="64" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1609,10 +2577,10 @@
         <v>116</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1635,10 +2603,10 @@
         <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
